--- a/biology/Botanique/Setaria_helvola/Setaria_helvola.xlsx
+++ b/biology/Botanique/Setaria_helvola/Setaria_helvola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setaria helvola (synonyme : Setaria pumila), la sétaire glauque ou sétaire naine, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales et tempérées chaudes de l'Ancien Monde.
 Ce sont des plantes herbacées annuelle, cespiteuses, aux tiges (chaumes) géniculées pouvant atteindre 130 cm de long, et aux inflorescences en panicules spiciformes. 
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (10 février 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (10 février 2018) :
 Chaetochloa glauca var. purpurea Farw.
 Chaetochloa lutescens var. longispica Honda
 Oplismenus helvolus (L.f.) P.Beauv.
